--- a/public/excel_model/ARRIVAGE.xlsx
+++ b/public/excel_model/ARRIVAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pieces-database\public\excel_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF85E0-AC3D-4ED8-B901-383D4525B1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E9B11-E4E0-4A6B-A3B1-BF35CA0E2297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F57B20E-2DA7-4C50-9F14-B02D4F621FDA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>REF OE</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">PRIX </t>
-  </si>
-  <si>
-    <t>PRIX REMISER</t>
   </si>
   <si>
     <t xml:space="preserve">MONTANT TOTAL </t>
@@ -67,9 +64,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,9 +133,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,9 +141,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -478,35 +466,35 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" hidden="1"/>
     <col min="10" max="16384" width="10.90625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -514,16 +502,13 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3LMvMujyDMjNrnY8yDHIlZHQPbvNl7JhvEywHBeblMVhDb215T3BR1A8B95FkVb+PJNAx5EqK3ti/+/9OzhpUA==" saltValue="W814MA9bxZ/pE9wB45fWWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:I1" xr:uid="{8A0AD4A0-48E2-40FD-B0D9-FC21B72B2ACB}"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jqa20TOSye5kf7pIaW6pb2toR92FltM9lf72WEM1fidq9L6I9CLb9dFbwZZ3p2kgTB10Nxlv7kgx7Zn/MgK2pQ==" saltValue="9yNNqvpT8BpVxaBiBlZyag==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A1:H1" xr:uid="{8A0AD4A0-48E2-40FD-B0D9-FC21B72B2ACB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
